--- a/文档/测试用例.xlsx
+++ b/文档/测试用例.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="119">
   <si>
     <t>编号</t>
   </si>
@@ -279,6 +279,191 @@
   </si>
   <si>
     <t>退出成功</t>
+  </si>
+  <si>
+    <t>搜索模块</t>
+  </si>
+  <si>
+    <t>导师学生信息搜索</t>
+  </si>
+  <si>
+    <t>存在符合搜索信息的学生（导师）</t>
+  </si>
+  <si>
+    <t>学生姓名：李
+学生专业：交通工程</t>
+  </si>
+  <si>
+    <t>1.在学生（导师）管理栏点击学生（导师）列表
+2.在搜索框中输入相关信息
+3.点击搜索</t>
+  </si>
+  <si>
+    <t>搜索成功，列表中出现符合搜索信息的学生（导师）</t>
+  </si>
+  <si>
+    <t>搜索成功</t>
+  </si>
+  <si>
+    <t>导师推荐模块</t>
+  </si>
+  <si>
+    <t>导师推荐榜匹配度</t>
+  </si>
+  <si>
+    <t>用户名：hefeng
+学生专业：计算机科学与技术
+研究兴趣：游戏开发
+学生邮箱：1711856038@qq.com</t>
+  </si>
+  <si>
+    <t>在导师管理栏中点击导师推荐</t>
+  </si>
+  <si>
+    <t>推荐成功，列表中按匹配度高低从上往下推荐导师</t>
+  </si>
+  <si>
+    <t>推荐成功</t>
+  </si>
+  <si>
+    <t>交流模块</t>
+  </si>
+  <si>
+    <t>学生（导师）向导师（学生）发送消息</t>
+  </si>
+  <si>
+    <t>学生用户名：hefeng
+导师用户名：test2
+发送内容：你好</t>
+  </si>
+  <si>
+    <t>1.用户在导师（学生）列表中找到对应的人并点击发送消息
+2.在信息框中输入想发送的内容
+3.点击发送</t>
+  </si>
+  <si>
+    <t>发送成功，收信人在用户留言中出现对于消息</t>
+  </si>
+  <si>
+    <t>发送成功</t>
+  </si>
+  <si>
+    <t>导师（学生）接受消息并回复</t>
+  </si>
+  <si>
+    <t>1.点击右上角的用户留言
+2.找到对应消息点击详情
+3.点击回复输入回复内容并发送</t>
+  </si>
+  <si>
+    <t>接收成功，消息状态变为已读</t>
+  </si>
+  <si>
+    <t>接收成功</t>
+  </si>
+  <si>
+    <t>个人简历模块</t>
+  </si>
+  <si>
+    <t>查看导师（学生）个人简历</t>
+  </si>
+  <si>
+    <t>用户名：test2
+密码：123456</t>
+  </si>
+  <si>
+    <t>1.点击导师（学生）列表
+2.找到对应的导师（学生）点击个人简历</t>
+  </si>
+  <si>
+    <t>查看成功，出现导师（学生）个人简历</t>
+  </si>
+  <si>
+    <t>查看成功</t>
+  </si>
+  <si>
+    <t>导师学生活动查询</t>
+  </si>
+  <si>
+    <t>存在符合搜索信息的活动</t>
+  </si>
+  <si>
+    <t>活动名称：2024年双选大会</t>
+  </si>
+  <si>
+    <t>1.在活动管理栏中点击活动查询
+2.输入想搜索活动的名称
+3.点击搜索</t>
+  </si>
+  <si>
+    <t>搜索成功，列表中出现对应活动的详情和起止时间</t>
+  </si>
+  <si>
+    <t>重置模块</t>
+  </si>
+  <si>
+    <t>重置搜索结果</t>
+  </si>
+  <si>
+    <t>点击重置键</t>
+  </si>
+  <si>
+    <t>重置成功，列表变为未搜索前的内容</t>
+  </si>
+  <si>
+    <t>重置成功</t>
+  </si>
+  <si>
+    <t>修改头像</t>
+  </si>
+  <si>
+    <t>1.点击个人信息栏
+2.点击头像并修改
+3.点击提交</t>
+  </si>
+  <si>
+    <t>修改成功，头像变为修改后的样子</t>
+  </si>
+  <si>
+    <t>修改个人简历</t>
+  </si>
+  <si>
+    <t>用户名：test2
+密码：123456
+个人简历：test</t>
+  </si>
+  <si>
+    <t>1.点击个人信息栏
+2.点击个人简历并修改
+3.点击保存</t>
+  </si>
+  <si>
+    <t>修改成功，个人简历变为修改后的内容</t>
+  </si>
+  <si>
+    <t>管理员模块</t>
+  </si>
+  <si>
+    <t>增删活动</t>
+  </si>
+  <si>
+    <t>活动只能由管理员发布</t>
+  </si>
+  <si>
+    <t>用户名：admin
+密码：admin123
+发布活动：2024年双选大会</t>
+  </si>
+  <si>
+    <t>1.登录管理员账号并点进活动管理中的活动查询
+2.点击新增活动并输入活动信息
+3.点击新增</t>
+  </si>
+  <si>
+    <t>新增成功，当前活动和活动查询中出现该活动信息</t>
+  </si>
+  <si>
+    <t>新增成功</t>
   </si>
 </sst>
 </file>
@@ -1447,20 +1632,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="8.88888888888889" style="2"/>
     <col min="2" max="2" width="18.1111111111111" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="3" max="3" width="35.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="32.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="27.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="39.5555555555556" style="3" customWidth="1"/>
-    <col min="8" max="8" width="35.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="29.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="53.8888888888889" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1495,7 +1681,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="86.4" spans="2:10">
+    <row r="2" s="1" customFormat="1" ht="86.4" spans="1:10">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1521,7 +1710,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="86.4" spans="2:10">
+    <row r="3" ht="86.4" spans="1:10">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1547,14 +1739,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="2:10">
+    <row r="4" ht="28.8" spans="1:10">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -1570,14 +1765,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="2:10">
+    <row r="5" ht="28.8" spans="1:10">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -1593,7 +1791,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" ht="57.6" spans="2:10">
+    <row r="6" ht="57.6" spans="1:10">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
@@ -1603,7 +1804,7 @@
       <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -1619,7 +1820,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" ht="57.6" spans="2:10">
+    <row r="7" ht="57.6" spans="1:10">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
@@ -1629,7 +1833,7 @@
       <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -1645,7 +1849,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" ht="57.6" spans="2:10">
+    <row r="8" ht="57.6" spans="1:10">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1655,7 +1862,7 @@
       <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -1671,7 +1878,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" ht="57.6" spans="2:10">
+    <row r="9" ht="57.6" spans="1:10">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
@@ -1681,7 +1891,7 @@
       <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -1697,7 +1907,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" ht="72" spans="2:10">
+    <row r="10" ht="72" spans="1:10">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>50</v>
       </c>
@@ -1707,7 +1920,7 @@
       <c r="E10" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -1723,7 +1936,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" ht="57.6" spans="2:10">
+    <row r="11" ht="57.6" spans="1:10">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>50</v>
       </c>
@@ -1733,7 +1949,7 @@
       <c r="E11" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
@@ -1749,7 +1965,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" ht="43.2" spans="2:10">
+    <row r="12" ht="43.2" spans="1:10">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1767,6 +1986,272 @@
       </c>
       <c r="J12" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="13" ht="43.2" spans="1:10">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" ht="57.6" spans="1:10">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" ht="43.2" spans="1:10">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" ht="43.2" spans="1:10">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" spans="1:10">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" ht="43.2" spans="1:10">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" ht="43.2" spans="1:10">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" ht="43.2" spans="1:10">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" ht="43.2" spans="1:10">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
